--- a/vgp_database/N_Montana_intrusions.xlsx
+++ b/vgp_database/N_Montana_intrusions.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -805,8 +805,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -839,7 +853,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">

--- a/vgp_database/N_Montana_intrusions.xlsx
+++ b/vgp_database/N_Montana_intrusions.xlsx
@@ -779,7 +779,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +804,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -825,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -921,6 +927,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -3230,8 +3239,8 @@
       <c r="K25" s="16">
         <v>25.7</v>
       </c>
-      <c r="L25" s="16">
-        <v>85.7</v>
+      <c r="L25" s="20">
+        <v>274.3</v>
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
@@ -10061,12 +10070,8 @@
         <v>11.6</v>
       </c>
       <c r="J99" s="30"/>
-      <c r="K99" s="16">
-        <v>31.7</v>
-      </c>
-      <c r="L99" s="16">
-        <v>250.8</v>
-      </c>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
       <c r="M99" s="30"/>
       <c r="N99" s="30"/>
       <c r="O99" s="30"/>
@@ -10431,12 +10436,8 @@
         <v>9.5</v>
       </c>
       <c r="J103" s="30"/>
-      <c r="K103" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="L103" s="16">
-        <v>325.5</v>
-      </c>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
       <c r="O103" s="30"/>
@@ -10447,11 +10448,11 @@
       <c r="R103" s="19">
         <v>52.1</v>
       </c>
-      <c r="S103" s="34"/>
+      <c r="S103" s="35"/>
       <c r="T103" s="19">
         <v>55.1</v>
       </c>
-      <c r="U103" s="34"/>
+      <c r="U103" s="35"/>
       <c r="V103" s="16" t="s">
         <v>74</v>
       </c>
@@ -11448,12 +11449,8 @@
         <v>4.2</v>
       </c>
       <c r="J114" s="30"/>
-      <c r="K114" s="16">
-        <v>78.1</v>
-      </c>
-      <c r="L114" s="16">
-        <v>202.9</v>
-      </c>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
       <c r="M114" s="30"/>
       <c r="N114" s="30"/>
       <c r="O114" s="30"/>
@@ -11539,12 +11536,8 @@
         <v>2.4</v>
       </c>
       <c r="J115" s="30"/>
-      <c r="K115" s="16">
-        <v>79.0</v>
-      </c>
-      <c r="L115" s="16">
-        <v>114.9</v>
-      </c>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
       <c r="O115" s="30"/>
@@ -11632,12 +11625,8 @@
         <v>5.2</v>
       </c>
       <c r="J116" s="30"/>
-      <c r="K116" s="16">
-        <v>79.0</v>
-      </c>
-      <c r="L116" s="16">
-        <v>110.5</v>
-      </c>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
       <c r="M116" s="30"/>
       <c r="N116" s="30"/>
       <c r="O116" s="30"/>
@@ -12099,12 +12088,8 @@
         <v>5.0</v>
       </c>
       <c r="J121" s="30"/>
-      <c r="K121" s="16">
-        <v>74.4</v>
-      </c>
-      <c r="L121" s="16">
-        <v>126.8</v>
-      </c>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
       <c r="M121" s="30"/>
       <c r="N121" s="30"/>
       <c r="O121" s="30"/>
@@ -12336,7 +12321,7 @@
         <v>210</v>
       </c>
       <c r="AK123" s="30"/>
-      <c r="AL123" s="35" t="s">
+      <c r="AL123" s="36" t="s">
         <v>211</v>
       </c>
       <c r="AM123" s="16"/>
@@ -12425,7 +12410,7 @@
         <v>210</v>
       </c>
       <c r="AK124" s="30"/>
-      <c r="AL124" s="35" t="s">
+      <c r="AL124" s="36" t="s">
         <v>213</v>
       </c>
       <c r="AM124" s="16"/>
@@ -12514,7 +12499,7 @@
         <v>210</v>
       </c>
       <c r="AK125" s="30"/>
-      <c r="AL125" s="35" t="s">
+      <c r="AL125" s="36" t="s">
         <v>216</v>
       </c>
       <c r="AM125" s="16"/>
@@ -12693,10 +12678,10 @@
       <c r="AJ127" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="AK127" s="36" t="s">
+      <c r="AK127" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AL127" s="37" t="s">
+      <c r="AL127" s="38" t="s">
         <v>221</v>
       </c>
       <c r="AM127" s="16"/>
@@ -13230,7 +13215,7 @@
         <v>210</v>
       </c>
       <c r="AK133" s="30"/>
-      <c r="AL133" s="35" t="s">
+      <c r="AL133" s="36" t="s">
         <v>229</v>
       </c>
       <c r="AM133" s="16"/>
@@ -13319,7 +13304,7 @@
         <v>210</v>
       </c>
       <c r="AK134" s="30"/>
-      <c r="AL134" s="35" t="s">
+      <c r="AL134" s="36" t="s">
         <v>229</v>
       </c>
       <c r="AM134" s="16"/>
@@ -13408,7 +13393,7 @@
         <v>210</v>
       </c>
       <c r="AK135" s="30"/>
-      <c r="AL135" s="35" t="s">
+      <c r="AL135" s="36" t="s">
         <v>232</v>
       </c>
       <c r="AM135" s="16"/>
@@ -13499,7 +13484,7 @@
         <v>210</v>
       </c>
       <c r="AK136" s="30"/>
-      <c r="AL136" s="35" t="s">
+      <c r="AL136" s="36" t="s">
         <v>235</v>
       </c>
       <c r="AM136" s="16"/>
